--- a/data/pca/factorExposure/factorExposure_2016-03-22.xlsx
+++ b/data/pca/factorExposure/factorExposure_2016-03-22.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="106">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="109" uniqueCount="109">
   <si>
     <t>factor1</t>
   </si>
@@ -23,6 +23,15 @@
   </si>
   <si>
     <t>factor3</t>
+  </si>
+  <si>
+    <t>factor4</t>
+  </si>
+  <si>
+    <t>factor5</t>
+  </si>
+  <si>
+    <t>factor6</t>
   </si>
   <si>
     <t>Constellation software inc/can</t>
@@ -689,13 +698,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D104"/>
+  <dimension ref="A1:G104"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:7">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -705,52 +714,88 @@
       <c r="D1" s="1" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="2" spans="1:4">
+      <c r="E1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7">
       <c r="A2" s="1" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="B2">
-        <v>-0.01242936772342892</v>
+        <v>0.01574482809191882</v>
       </c>
       <c r="C2">
-        <v>-0.05893905631111093</v>
+        <v>0.04150781943668679</v>
       </c>
       <c r="D2">
-        <v>0.03955777815083221</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4">
+        <v>-0.07361715717995199</v>
+      </c>
+      <c r="E2">
+        <v>0.1079447586811041</v>
+      </c>
+      <c r="F2">
+        <v>0.07310109431188747</v>
+      </c>
+      <c r="G2">
+        <v>-0.02721916738478146</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7">
       <c r="A3" s="1" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="B3">
-        <v>-0.04133129131427796</v>
+        <v>0.02562740740529692</v>
       </c>
       <c r="C3">
-        <v>-0.121994368494665</v>
+        <v>0.06739124971351725</v>
       </c>
       <c r="D3">
-        <v>0.08114971368527271</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4">
+        <v>-0.07929622690783882</v>
+      </c>
+      <c r="E3">
+        <v>0.06940914789971182</v>
+      </c>
+      <c r="F3">
+        <v>-0.03588910683188792</v>
+      </c>
+      <c r="G3">
+        <v>-0.02827685017512537</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7">
       <c r="A4" s="1" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="B4">
-        <v>-0.06293632711055064</v>
+        <v>0.06163939482744508</v>
       </c>
       <c r="C4">
-        <v>-0.06638282231022399</v>
+        <v>0.06495920609431861</v>
       </c>
       <c r="D4">
-        <v>0.03422235254953548</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4">
+        <v>-0.06858441446454398</v>
+      </c>
+      <c r="E4">
+        <v>0.09806318323410651</v>
+      </c>
+      <c r="F4">
+        <v>0.02605566148308257</v>
+      </c>
+      <c r="G4">
+        <v>-0.07599606001472116</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7">
       <c r="A5" s="1" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="B5">
         <v>0</v>
@@ -761,164 +806,272 @@
       <c r="D5">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:4">
+      <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
+        <v>0</v>
+      </c>
+      <c r="G5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7">
       <c r="A6" s="1" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="B6">
-        <v>-0.04136152153376885</v>
+        <v>0.03858837221028764</v>
       </c>
       <c r="C6">
-        <v>-0.03656449951075665</v>
+        <v>0.02678309532614987</v>
       </c>
       <c r="D6">
-        <v>0.03342177996105853</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4">
+        <v>-0.07223885325556895</v>
+      </c>
+      <c r="E6">
+        <v>0.08937629813017134</v>
+      </c>
+      <c r="F6">
+        <v>0.01828385923413811</v>
+      </c>
+      <c r="G6">
+        <v>-0.05800054722939642</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7">
       <c r="A7" s="1" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="B7">
-        <v>-0.02899055675689772</v>
+        <v>0.02271323366861077</v>
       </c>
       <c r="C7">
-        <v>-0.03957059502310936</v>
+        <v>0.03638539779477611</v>
       </c>
       <c r="D7">
-        <v>-0.003064850847593567</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4">
+        <v>-0.04833681159627128</v>
+      </c>
+      <c r="E7">
+        <v>0.0741684563777289</v>
+      </c>
+      <c r="F7">
+        <v>0.05311377308237257</v>
+      </c>
+      <c r="G7">
+        <v>-0.1019253711999922</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7">
       <c r="A8" s="1" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="B8">
-        <v>-0.008472975681662021</v>
+        <v>0.007795932380082006</v>
       </c>
       <c r="C8">
-        <v>-0.04206800582285104</v>
+        <v>0.03495580720478446</v>
       </c>
       <c r="D8">
-        <v>0.02590159768226389</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4">
+        <v>-0.04343143012283816</v>
+      </c>
+      <c r="E8">
+        <v>0.06019500456812273</v>
+      </c>
+      <c r="F8">
+        <v>0.01226130765403624</v>
+      </c>
+      <c r="G8">
+        <v>-0.03645813805503585</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7">
       <c r="A9" s="1" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="B9">
-        <v>-0.03906961920468935</v>
+        <v>0.04220441740538072</v>
       </c>
       <c r="C9">
-        <v>-0.04782477786594277</v>
+        <v>0.05077007744271179</v>
       </c>
       <c r="D9">
-        <v>0.01764213617291741</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4">
+        <v>-0.04943362056116741</v>
+      </c>
+      <c r="E9">
+        <v>0.07678747163220186</v>
+      </c>
+      <c r="F9">
+        <v>0.04342566617745369</v>
+      </c>
+      <c r="G9">
+        <v>-0.07853301239119143</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7">
       <c r="A10" s="1" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="B10">
-        <v>-0.07052933104518565</v>
+        <v>0.09821284900861189</v>
       </c>
       <c r="C10">
-        <v>0.1896423200061436</v>
+        <v>-0.2022457982293757</v>
       </c>
       <c r="D10">
-        <v>0.0006007301711642601</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4">
+        <v>0.008713235487749245</v>
+      </c>
+      <c r="E10">
+        <v>0.03557972750533461</v>
+      </c>
+      <c r="F10">
+        <v>0.01611667391983738</v>
+      </c>
+      <c r="G10">
+        <v>-0.04183744954367612</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7">
       <c r="A11" s="1" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="B11">
-        <v>-0.04402967151934373</v>
+        <v>0.03859705357124561</v>
       </c>
       <c r="C11">
-        <v>-0.05060250323601632</v>
+        <v>0.04713103162859813</v>
       </c>
       <c r="D11">
-        <v>0.01471172220831475</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4">
+        <v>-0.03469131121841553</v>
+      </c>
+      <c r="E11">
+        <v>0.03084145317880102</v>
+      </c>
+      <c r="F11">
+        <v>0.02893645900680759</v>
+      </c>
+      <c r="G11">
+        <v>-0.07065637143305531</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7">
       <c r="A12" s="1" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="B12">
-        <v>-0.04581068586097319</v>
+        <v>0.04006120432178145</v>
       </c>
       <c r="C12">
-        <v>-0.04653124511387934</v>
+        <v>0.04579711754270369</v>
       </c>
       <c r="D12">
-        <v>0.000918919532844639</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4">
+        <v>-0.02952675648730928</v>
+      </c>
+      <c r="E12">
+        <v>0.04099245080422218</v>
+      </c>
+      <c r="F12">
+        <v>0.03049338790185839</v>
+      </c>
+      <c r="G12">
+        <v>-0.06595272593517267</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7">
       <c r="A13" s="1" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="B13">
-        <v>-0.01740234523761774</v>
+        <v>0.01582287941499562</v>
       </c>
       <c r="C13">
-        <v>-0.0532639803787117</v>
+        <v>0.04251585814614336</v>
       </c>
       <c r="D13">
-        <v>0.009674346184557599</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4">
+        <v>-0.05932591271976454</v>
+      </c>
+      <c r="E13">
+        <v>0.1117278341962577</v>
+      </c>
+      <c r="F13">
+        <v>0.04316913005111932</v>
+      </c>
+      <c r="G13">
+        <v>-0.09077643228914815</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7">
       <c r="A14" s="1" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="B14">
-        <v>-0.01143612293147925</v>
+        <v>0.007881366598759128</v>
       </c>
       <c r="C14">
-        <v>-0.03537428514853744</v>
+        <v>0.03021581984446079</v>
       </c>
       <c r="D14">
-        <v>-0.0009694798293100509</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4">
+        <v>-0.03326571468186124</v>
+      </c>
+      <c r="E14">
+        <v>0.0653511790104091</v>
+      </c>
+      <c r="F14">
+        <v>0.06224471169645873</v>
+      </c>
+      <c r="G14">
+        <v>-0.080048217282479</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7">
       <c r="A15" s="1" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="B15">
-        <v>0</v>
+        <v>0.0001934445901898319</v>
       </c>
       <c r="C15">
-        <v>0</v>
+        <v>0.006311224376764228</v>
       </c>
       <c r="D15">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4">
+        <v>-0.01020016898688108</v>
+      </c>
+      <c r="E15">
+        <v>0.007767655074375766</v>
+      </c>
+      <c r="F15">
+        <v>0.005483902512040875</v>
+      </c>
+      <c r="G15">
+        <v>-0.007443670080936343</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7">
       <c r="A16" s="1" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="B16">
-        <v>-0.04166456378663098</v>
+        <v>0.03675128674390722</v>
       </c>
       <c r="C16">
-        <v>-0.0473426954877302</v>
+        <v>0.04406933100334278</v>
       </c>
       <c r="D16">
-        <v>0.003634155700101418</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4">
+        <v>-0.02980649679982156</v>
+      </c>
+      <c r="E16">
+        <v>0.046082662360156</v>
+      </c>
+      <c r="F16">
+        <v>0.04137536753977007</v>
+      </c>
+      <c r="G16">
+        <v>-0.05743370098966199</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7">
       <c r="A17" s="1" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="B17">
         <v>0</v>
@@ -929,10 +1082,19 @@
       <c r="D17">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="1:4">
+      <c r="E17">
+        <v>0</v>
+      </c>
+      <c r="F17">
+        <v>0</v>
+      </c>
+      <c r="G17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7">
       <c r="A18" s="1" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="B18">
         <v>0</v>
@@ -943,122 +1105,203 @@
       <c r="D18">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="1:4">
+      <c r="E18">
+        <v>0</v>
+      </c>
+      <c r="F18">
+        <v>0</v>
+      </c>
+      <c r="G18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7">
       <c r="A19" s="1" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="B19">
-        <v>-0.02771541938051715</v>
+        <v>0.01944437814097007</v>
       </c>
       <c r="C19">
-        <v>-0.06117975236890599</v>
+        <v>0.04483176018103162</v>
       </c>
       <c r="D19">
-        <v>0.08917407794163205</v>
-      </c>
-    </row>
-    <row r="20" spans="1:4">
+        <v>-0.09978702862951028</v>
+      </c>
+      <c r="E19">
+        <v>0.1093981031050476</v>
+      </c>
+      <c r="F19">
+        <v>0.04895961846628451</v>
+      </c>
+      <c r="G19">
+        <v>-0.03471032961016136</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7">
       <c r="A20" s="1" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="B20">
-        <v>-0.02126325171159731</v>
+        <v>0.01711196903515706</v>
       </c>
       <c r="C20">
-        <v>-0.04931877741454357</v>
+        <v>0.04008776316469238</v>
       </c>
       <c r="D20">
-        <v>0.009763010951054156</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4">
+        <v>-0.04356803806731002</v>
+      </c>
+      <c r="E20">
+        <v>0.08531195913340223</v>
+      </c>
+      <c r="F20">
+        <v>0.04320981181497072</v>
+      </c>
+      <c r="G20">
+        <v>-0.063593124922927</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7">
       <c r="A21" s="1" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="B21">
-        <v>-0.01574704812621897</v>
+        <v>0.01472964362383512</v>
       </c>
       <c r="C21">
-        <v>-0.05461186712657758</v>
+        <v>0.04366532240156973</v>
       </c>
       <c r="D21">
-        <v>0.03519184486242116</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4">
+        <v>-0.07160128643635434</v>
+      </c>
+      <c r="E21">
+        <v>0.1327034005573533</v>
+      </c>
+      <c r="F21">
+        <v>0.07000454097638541</v>
+      </c>
+      <c r="G21">
+        <v>-0.09347952106754427</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7">
       <c r="A22" s="1" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="B22">
-        <v>0.0005405535116449184</v>
+        <v>0.004755978881674397</v>
       </c>
       <c r="C22">
-        <v>-0.01376573554642363</v>
+        <v>0.02956824426752099</v>
       </c>
       <c r="D22">
-        <v>0.02538392261580517</v>
-      </c>
-    </row>
-    <row r="23" spans="1:4">
+        <v>-0.06197393201407508</v>
+      </c>
+      <c r="E22">
+        <v>0.06570720741377123</v>
+      </c>
+      <c r="F22">
+        <v>-0.02918116695972897</v>
+      </c>
+      <c r="G22">
+        <v>-0.05039761629295047</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7">
       <c r="A23" s="1" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="B23">
-        <v>0.0005345398292759757</v>
+        <v>0.004845788767119002</v>
       </c>
       <c r="C23">
-        <v>-0.01376267681579995</v>
+        <v>0.02958471528620914</v>
       </c>
       <c r="D23">
-        <v>0.02530925915553201</v>
-      </c>
-    </row>
-    <row r="24" spans="1:4">
+        <v>-0.06122070523835166</v>
+      </c>
+      <c r="E23">
+        <v>0.06585549987939592</v>
+      </c>
+      <c r="F23">
+        <v>-0.02929026115219793</v>
+      </c>
+      <c r="G23">
+        <v>-0.05048987852523495</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7">
       <c r="A24" s="1" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="B24">
-        <v>-0.03889454772724085</v>
+        <v>0.03794358605434703</v>
       </c>
       <c r="C24">
-        <v>-0.04832786097762287</v>
+        <v>0.05211027112376043</v>
       </c>
       <c r="D24">
-        <v>0.009003562749257395</v>
-      </c>
-    </row>
-    <row r="25" spans="1:4">
+        <v>-0.0311883798764285</v>
+      </c>
+      <c r="E24">
+        <v>0.04988333475489115</v>
+      </c>
+      <c r="F24">
+        <v>0.04174751006402905</v>
+      </c>
+      <c r="G24">
+        <v>-0.06791895098226729</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7">
       <c r="A25" s="1" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="B25">
-        <v>-0.04995588363768891</v>
+        <v>0.04521699965301921</v>
       </c>
       <c r="C25">
-        <v>-0.05830029209954232</v>
+        <v>0.05505207164933894</v>
       </c>
       <c r="D25">
-        <v>-0.002034108914883423</v>
-      </c>
-    </row>
-    <row r="26" spans="1:4">
+        <v>-0.02738882277506898</v>
+      </c>
+      <c r="E25">
+        <v>0.04043580744348731</v>
+      </c>
+      <c r="F25">
+        <v>0.03219780287208873</v>
+      </c>
+      <c r="G25">
+        <v>-0.08147337882041936</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7">
       <c r="A26" s="1" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="B26">
-        <v>-0.01975476019304966</v>
+        <v>0.01799657793390567</v>
       </c>
       <c r="C26">
-        <v>-0.01630535063042406</v>
+        <v>0.01661886361171338</v>
       </c>
       <c r="D26">
-        <v>0.008883282440716327</v>
-      </c>
-    </row>
-    <row r="27" spans="1:4">
+        <v>-0.03261175566415993</v>
+      </c>
+      <c r="E26">
+        <v>0.05770778290539239</v>
+      </c>
+      <c r="F26">
+        <v>0.04663299832163798</v>
+      </c>
+      <c r="G26">
+        <v>-0.04666431234008015</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7">
       <c r="A27" s="1" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="B27">
         <v>0</v>
@@ -1069,108 +1312,180 @@
       <c r="D27">
         <v>0</v>
       </c>
-    </row>
-    <row r="28" spans="1:4">
+      <c r="E27">
+        <v>0</v>
+      </c>
+      <c r="F27">
+        <v>0</v>
+      </c>
+      <c r="G27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7">
       <c r="A28" s="1" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="B28">
-        <v>-0.08847631465634861</v>
+        <v>0.1349378936393945</v>
       </c>
       <c r="C28">
-        <v>0.2579424681392507</v>
+        <v>-0.2607412654483371</v>
       </c>
       <c r="D28">
-        <v>-0.003522695948409104</v>
-      </c>
-    </row>
-    <row r="29" spans="1:4">
+        <v>0.02400063318305952</v>
+      </c>
+      <c r="E28">
+        <v>0.05566583943391635</v>
+      </c>
+      <c r="F28">
+        <v>0.0256129923175066</v>
+      </c>
+      <c r="G28">
+        <v>-0.05696450317234522</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7">
       <c r="A29" s="1" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="B29">
-        <v>-0.009657465504682727</v>
+        <v>0.008459606486648272</v>
       </c>
       <c r="C29">
-        <v>-0.03165681522222355</v>
+        <v>0.02847393809885243</v>
       </c>
       <c r="D29">
-        <v>-0.007856846203134604</v>
-      </c>
-    </row>
-    <row r="30" spans="1:4">
+        <v>-0.02554480985645084</v>
+      </c>
+      <c r="E29">
+        <v>0.06396573730255205</v>
+      </c>
+      <c r="F29">
+        <v>0.0533825708222371</v>
+      </c>
+      <c r="G29">
+        <v>-0.08521406268972026</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7">
       <c r="A30" s="1" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="B30">
-        <v>-0.04727790202568381</v>
+        <v>0.04607419939707996</v>
       </c>
       <c r="C30">
-        <v>-0.05075207374076923</v>
+        <v>0.05619390775053808</v>
       </c>
       <c r="D30">
-        <v>0.08229315177970829</v>
-      </c>
-    </row>
-    <row r="31" spans="1:4">
+        <v>-0.1128370817188968</v>
+      </c>
+      <c r="E30">
+        <v>0.08346457258430248</v>
+      </c>
+      <c r="F30">
+        <v>0.04931266119421068</v>
+      </c>
+      <c r="G30">
+        <v>-0.05864969324438376</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7">
       <c r="A31" s="1" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="B31">
-        <v>-0.06359352669398494</v>
+        <v>0.06139192815908674</v>
       </c>
       <c r="C31">
-        <v>-0.04484580068311693</v>
+        <v>0.0600018827601299</v>
       </c>
       <c r="D31">
-        <v>-0.03814343226069475</v>
-      </c>
-    </row>
-    <row r="32" spans="1:4">
+        <v>0.008431082944223048</v>
+      </c>
+      <c r="E31">
+        <v>0.07561927824551716</v>
+      </c>
+      <c r="F31">
+        <v>0.009840546082480268</v>
+      </c>
+      <c r="G31">
+        <v>-0.07335363007576155</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7">
       <c r="A32" s="1" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="B32">
-        <v>-0.007033821397561211</v>
+        <v>0.01099233369811728</v>
       </c>
       <c r="C32">
-        <v>-0.03852489762894475</v>
+        <v>0.03444276564059241</v>
       </c>
       <c r="D32">
-        <v>0.05903081870522071</v>
-      </c>
-    </row>
-    <row r="33" spans="1:4">
+        <v>-0.06362420591873423</v>
+      </c>
+      <c r="E32">
+        <v>0.05790634244615148</v>
+      </c>
+      <c r="F32">
+        <v>0.05409411568476469</v>
+      </c>
+      <c r="G32">
+        <v>-0.06437553385331576</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7">
       <c r="A33" s="1" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="B33">
-        <v>-0.03595828151219195</v>
+        <v>0.02946886525366528</v>
       </c>
       <c r="C33">
-        <v>-0.05929442827877818</v>
+        <v>0.05237915050376719</v>
       </c>
       <c r="D33">
-        <v>0.04085078070230097</v>
-      </c>
-    </row>
-    <row r="34" spans="1:4">
+        <v>-0.07852705424420645</v>
+      </c>
+      <c r="E33">
+        <v>0.09104706506150223</v>
+      </c>
+      <c r="F33">
+        <v>0.04928828938530871</v>
+      </c>
+      <c r="G33">
+        <v>-0.1009119695829786</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7">
       <c r="A34" s="1" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="B34">
-        <v>-0.04480675829630067</v>
+        <v>0.04128005401217763</v>
       </c>
       <c r="C34">
-        <v>-0.06480386971936046</v>
+        <v>0.06273869865329607</v>
       </c>
       <c r="D34">
-        <v>0.02083740263561626</v>
-      </c>
-    </row>
-    <row r="35" spans="1:4">
+        <v>-0.03833600373203497</v>
+      </c>
+      <c r="E34">
+        <v>0.02457781986233757</v>
+      </c>
+      <c r="F34">
+        <v>0.04326014594046075</v>
+      </c>
+      <c r="G34">
+        <v>-0.07500054087221344</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7">
       <c r="A35" s="1" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="B35">
         <v>0</v>
@@ -1181,24 +1496,42 @@
       <c r="D35">
         <v>0</v>
       </c>
-    </row>
-    <row r="36" spans="1:4">
+      <c r="E35">
+        <v>0</v>
+      </c>
+      <c r="F35">
+        <v>0</v>
+      </c>
+      <c r="G35">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7">
       <c r="A36" s="1" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="B36">
-        <v>-0.01933883140472493</v>
+        <v>0.01665232493283844</v>
       </c>
       <c r="C36">
-        <v>-0.01641679313738529</v>
+        <v>0.01324757352797724</v>
       </c>
       <c r="D36">
-        <v>0.001689441616253931</v>
-      </c>
-    </row>
-    <row r="37" spans="1:4">
+        <v>-0.03161177033039825</v>
+      </c>
+      <c r="E36">
+        <v>0.06488452257719783</v>
+      </c>
+      <c r="F36">
+        <v>0.03859881448028173</v>
+      </c>
+      <c r="G36">
+        <v>-0.0649511518462902</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7">
       <c r="A37" s="1" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="B37">
         <v>0</v>
@@ -1209,66 +1542,111 @@
       <c r="D37">
         <v>0</v>
       </c>
-    </row>
-    <row r="38" spans="1:4">
+      <c r="E37">
+        <v>0</v>
+      </c>
+      <c r="F37">
+        <v>0</v>
+      </c>
+      <c r="G37">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:7">
       <c r="A38" s="1" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="B38">
-        <v>-0.02988910924348633</v>
+        <v>0.0236772556321599</v>
       </c>
       <c r="C38">
-        <v>-0.03155381098679635</v>
+        <v>0.02416952650273877</v>
       </c>
       <c r="D38">
-        <v>-0.01427187135491103</v>
-      </c>
-    </row>
-    <row r="39" spans="1:4">
+        <v>-0.02512387047777689</v>
+      </c>
+      <c r="E38">
+        <v>0.05928206321338824</v>
+      </c>
+      <c r="F38">
+        <v>0.02950368595485151</v>
+      </c>
+      <c r="G38">
+        <v>-0.04169196680592641</v>
+      </c>
+    </row>
+    <row r="39" spans="1:7">
       <c r="A39" s="1" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="B39">
-        <v>-0.04936900503668797</v>
+        <v>0.04364144502545354</v>
       </c>
       <c r="C39">
-        <v>-0.0592425513011296</v>
+        <v>0.06144018374081296</v>
       </c>
       <c r="D39">
-        <v>0.02235977373371119</v>
-      </c>
-    </row>
-    <row r="40" spans="1:4">
+        <v>-0.05835730015656292</v>
+      </c>
+      <c r="E39">
+        <v>0.05813495091215982</v>
+      </c>
+      <c r="F39">
+        <v>0.06233010172702131</v>
+      </c>
+      <c r="G39">
+        <v>-0.06480367911487937</v>
+      </c>
+    </row>
+    <row r="40" spans="1:7">
       <c r="A40" s="1" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="B40">
-        <v>-0.01342012901103818</v>
+        <v>0.01603501767270774</v>
       </c>
       <c r="C40">
-        <v>-0.0531882324121244</v>
+        <v>0.03860957918975474</v>
       </c>
       <c r="D40">
-        <v>0.01022959802668066</v>
-      </c>
-    </row>
-    <row r="41" spans="1:4">
+        <v>-0.03990090957826787</v>
+      </c>
+      <c r="E40">
+        <v>0.09956133996994287</v>
+      </c>
+      <c r="F40">
+        <v>0.02421695809971213</v>
+      </c>
+      <c r="G40">
+        <v>-0.09467364795630634</v>
+      </c>
+    </row>
+    <row r="41" spans="1:7">
       <c r="A41" s="1" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="B41">
-        <v>-0.02477640321922094</v>
+        <v>0.02103077922210862</v>
       </c>
       <c r="C41">
-        <v>-0.01424023613254071</v>
+        <v>0.009517145236109583</v>
       </c>
       <c r="D41">
-        <v>0.001013139381337836</v>
-      </c>
-    </row>
-    <row r="42" spans="1:4">
+        <v>-0.0219503253413513</v>
+      </c>
+      <c r="E41">
+        <v>0.06682996670709553</v>
+      </c>
+      <c r="F41">
+        <v>0.0329721186256156</v>
+      </c>
+      <c r="G41">
+        <v>-0.05061713389138912</v>
+      </c>
+    </row>
+    <row r="42" spans="1:7">
       <c r="A42" s="1" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="B42">
         <v>0</v>
@@ -1279,38 +1657,65 @@
       <c r="D42">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="1:4">
+      <c r="E42">
+        <v>0</v>
+      </c>
+      <c r="F42">
+        <v>0</v>
+      </c>
+      <c r="G42">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:7">
       <c r="A43" s="1" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="B43">
-        <v>-0.04678746627953059</v>
+        <v>0.03317503882020704</v>
       </c>
       <c r="C43">
-        <v>-0.03377044416291058</v>
+        <v>0.02437230855953771</v>
       </c>
       <c r="D43">
-        <v>0.02384520358675682</v>
-      </c>
-    </row>
-    <row r="44" spans="1:4">
+        <v>-0.0517908881017898</v>
+      </c>
+      <c r="E43">
+        <v>0.08122386378834238</v>
+      </c>
+      <c r="F43">
+        <v>0.02190928034103146</v>
+      </c>
+      <c r="G43">
+        <v>-0.07142466427928917</v>
+      </c>
+    </row>
+    <row r="44" spans="1:7">
       <c r="A44" s="1" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="B44">
-        <v>-0.01921966930889799</v>
+        <v>0.01974327920447571</v>
       </c>
       <c r="C44">
-        <v>-0.0691581872104642</v>
+        <v>0.04823796834978936</v>
       </c>
       <c r="D44">
-        <v>0.0005240121525132216</v>
-      </c>
-    </row>
-    <row r="45" spans="1:4">
+        <v>-0.0405970960957797</v>
+      </c>
+      <c r="E44">
+        <v>0.0929901942222106</v>
+      </c>
+      <c r="F44">
+        <v>0.05307842626011901</v>
+      </c>
+      <c r="G44">
+        <v>-0.0541696098976604</v>
+      </c>
+    </row>
+    <row r="45" spans="1:7">
       <c r="A45" s="1" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="B45">
         <v>0</v>
@@ -1321,52 +1726,88 @@
       <c r="D45">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="1:4">
+      <c r="E45">
+        <v>0</v>
+      </c>
+      <c r="F45">
+        <v>0</v>
+      </c>
+      <c r="G45">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:7">
       <c r="A46" s="1" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="B46">
-        <v>-0.01381274046211361</v>
+        <v>0.01337565338823784</v>
       </c>
       <c r="C46">
-        <v>-0.02512935848438623</v>
+        <v>0.02842392467526065</v>
       </c>
       <c r="D46">
-        <v>-0.009701719536630571</v>
-      </c>
-    </row>
-    <row r="47" spans="1:4">
+        <v>-0.02361807356513693</v>
+      </c>
+      <c r="E46">
+        <v>0.07675333264451156</v>
+      </c>
+      <c r="F46">
+        <v>0.06016280844923183</v>
+      </c>
+      <c r="G46">
+        <v>-0.07832699025198907</v>
+      </c>
+    </row>
+    <row r="47" spans="1:7">
       <c r="A47" s="1" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="B47">
-        <v>-0.09201820649983156</v>
+        <v>0.09435089495146627</v>
       </c>
       <c r="C47">
-        <v>-0.06397434113041901</v>
+        <v>0.07715232403315889</v>
       </c>
       <c r="D47">
-        <v>-0.04544841130567306</v>
-      </c>
-    </row>
-    <row r="48" spans="1:4">
+        <v>0.01795660036116539</v>
+      </c>
+      <c r="E47">
+        <v>0.07091677247565335</v>
+      </c>
+      <c r="F47">
+        <v>0.0126944370532054</v>
+      </c>
+      <c r="G47">
+        <v>-0.0742872530059585</v>
+      </c>
+    </row>
+    <row r="48" spans="1:7">
       <c r="A48" s="1" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="B48">
-        <v>-0.02099955651992776</v>
+        <v>0.01938889494115838</v>
       </c>
       <c r="C48">
-        <v>-0.01344698426984143</v>
+        <v>0.01567197371325624</v>
       </c>
       <c r="D48">
-        <v>-0.01382641837134492</v>
-      </c>
-    </row>
-    <row r="49" spans="1:4">
+        <v>-0.01967735462035933</v>
+      </c>
+      <c r="E48">
+        <v>0.08178945334204421</v>
+      </c>
+      <c r="F48">
+        <v>0.05205858482146932</v>
+      </c>
+      <c r="G48">
+        <v>-0.06955726400788746</v>
+      </c>
+    </row>
+    <row r="49" spans="1:7">
       <c r="A49" s="1" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="B49">
         <v>0</v>
@@ -1377,38 +1818,65 @@
       <c r="D49">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="1:4">
+      <c r="E49">
+        <v>0</v>
+      </c>
+      <c r="F49">
+        <v>0</v>
+      </c>
+      <c r="G49">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="1:7">
       <c r="A50" s="1" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="B50">
-        <v>-0.08648262263969481</v>
+        <v>0.0740071025476189</v>
       </c>
       <c r="C50">
-        <v>-0.07972094956127854</v>
+        <v>0.07283451654976124</v>
       </c>
       <c r="D50">
-        <v>-0.04157569133048211</v>
-      </c>
-    </row>
-    <row r="51" spans="1:4">
+        <v>-0.0005157055062896884</v>
+      </c>
+      <c r="E50">
+        <v>0.08310609805459716</v>
+      </c>
+      <c r="F50">
+        <v>-0.01873088810878332</v>
+      </c>
+      <c r="G50">
+        <v>-0.0803191173009946</v>
+      </c>
+    </row>
+    <row r="51" spans="1:7">
       <c r="A51" s="1" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="B51">
-        <v>-0.01603107749683851</v>
+        <v>0.01185150443574879</v>
       </c>
       <c r="C51">
-        <v>-0.04772139852935822</v>
+        <v>0.03065442033293512</v>
       </c>
       <c r="D51">
-        <v>0.04748342320606175</v>
-      </c>
-    </row>
-    <row r="52" spans="1:4">
+        <v>-0.06470639762472481</v>
+      </c>
+      <c r="E51">
+        <v>0.06504605955570775</v>
+      </c>
+      <c r="F51">
+        <v>0.04988303499514293</v>
+      </c>
+      <c r="G51">
+        <v>-0.05287334984827221</v>
+      </c>
+    </row>
+    <row r="52" spans="1:7">
       <c r="A52" s="1" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="B52">
         <v>0</v>
@@ -1419,66 +1887,111 @@
       <c r="D52">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="1:4">
+      <c r="E52">
+        <v>0</v>
+      </c>
+      <c r="F52">
+        <v>0</v>
+      </c>
+      <c r="G52">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="1:7">
       <c r="A53" s="1" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="B53">
-        <v>-0.08530191574786702</v>
+        <v>0.09905043371860076</v>
       </c>
       <c r="C53">
-        <v>-0.07604487590353692</v>
+        <v>0.08340737086873649</v>
       </c>
       <c r="D53">
-        <v>-0.06809726680914703</v>
-      </c>
-    </row>
-    <row r="54" spans="1:4">
+        <v>0.05793574779477481</v>
+      </c>
+      <c r="E53">
+        <v>0.0756801780306159</v>
+      </c>
+      <c r="F53">
+        <v>0.01912089371047941</v>
+      </c>
+      <c r="G53">
+        <v>-0.07487936503002172</v>
+      </c>
+    </row>
+    <row r="54" spans="1:7">
       <c r="A54" s="1" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="B54">
-        <v>-0.03826262391893542</v>
+        <v>0.03176013498690492</v>
       </c>
       <c r="C54">
-        <v>-0.03263045553362393</v>
+        <v>0.03048020702212047</v>
       </c>
       <c r="D54">
-        <v>0.002107639643215112</v>
-      </c>
-    </row>
-    <row r="55" spans="1:4">
+        <v>-0.03329469066483615</v>
+      </c>
+      <c r="E54">
+        <v>0.06693229564941686</v>
+      </c>
+      <c r="F54">
+        <v>0.05507055636811922</v>
+      </c>
+      <c r="G54">
+        <v>-0.08377220622158897</v>
+      </c>
+    </row>
+    <row r="55" spans="1:7">
       <c r="A55" s="1" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="B55">
-        <v>-0.08078045394949947</v>
+        <v>0.09123765104173794</v>
       </c>
       <c r="C55">
-        <v>-0.05059220101336041</v>
+        <v>0.06504976162960616</v>
       </c>
       <c r="D55">
-        <v>-0.07074507325051507</v>
-      </c>
-    </row>
-    <row r="56" spans="1:4">
+        <v>0.05816791341312632</v>
+      </c>
+      <c r="E55">
+        <v>0.0533351979749343</v>
+      </c>
+      <c r="F55">
+        <v>-0.002099483084411356</v>
+      </c>
+      <c r="G55">
+        <v>-0.05367189782293921</v>
+      </c>
+    </row>
+    <row r="56" spans="1:7">
       <c r="A56" s="1" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="B56">
-        <v>-0.154437967246698</v>
+        <v>0.1565607720651428</v>
       </c>
       <c r="C56">
-        <v>-0.07722827141362296</v>
+        <v>0.09758561030724203</v>
       </c>
       <c r="D56">
-        <v>-0.06230733929858309</v>
-      </c>
-    </row>
-    <row r="57" spans="1:4">
+        <v>0.05159503679678449</v>
+      </c>
+      <c r="E56">
+        <v>0.04018011252867407</v>
+      </c>
+      <c r="F56">
+        <v>-0.01167608967096807</v>
+      </c>
+      <c r="G56">
+        <v>-0.02280214150457291</v>
+      </c>
+    </row>
+    <row r="57" spans="1:7">
       <c r="A57" s="1" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="B57">
         <v>0</v>
@@ -1489,66 +2002,111 @@
       <c r="D57">
         <v>0</v>
       </c>
-    </row>
-    <row r="58" spans="1:4">
+      <c r="E57">
+        <v>0</v>
+      </c>
+      <c r="F57">
+        <v>0</v>
+      </c>
+      <c r="G57">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="1:7">
       <c r="A58" s="1" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="B58">
-        <v>-0.05483154679803131</v>
+        <v>0.03665338086953215</v>
       </c>
       <c r="C58">
-        <v>-0.01999526273747438</v>
+        <v>0.02251042719428494</v>
       </c>
       <c r="D58">
-        <v>0.470970713789333</v>
-      </c>
-    </row>
-    <row r="59" spans="1:4">
+        <v>-0.4077369664700581</v>
+      </c>
+      <c r="E58">
+        <v>0.5144528287829135</v>
+      </c>
+      <c r="F58">
+        <v>-0.3887361969793214</v>
+      </c>
+      <c r="G58">
+        <v>0.5517028702088782</v>
+      </c>
+    </row>
+    <row r="59" spans="1:7">
       <c r="A59" s="1" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="B59">
-        <v>-0.122362393127458</v>
+        <v>0.1387494835189354</v>
       </c>
       <c r="C59">
-        <v>0.2075010004532154</v>
+        <v>-0.1939667107030192</v>
       </c>
       <c r="D59">
-        <v>0.03039178930847636</v>
-      </c>
-    </row>
-    <row r="60" spans="1:4">
+        <v>-0.03290391146168838</v>
+      </c>
+      <c r="E59">
+        <v>0.02657922754835313</v>
+      </c>
+      <c r="F59">
+        <v>0.03196229688709853</v>
+      </c>
+      <c r="G59">
+        <v>0.004101567856365021</v>
+      </c>
+    </row>
+    <row r="60" spans="1:7">
       <c r="A60" s="1" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="B60">
-        <v>-0.2963943651942291</v>
+        <v>0.2691064909219254</v>
       </c>
       <c r="C60">
-        <v>-0.1178178863653837</v>
+        <v>0.1022856332000872</v>
       </c>
       <c r="D60">
-        <v>0.2171021641180367</v>
-      </c>
-    </row>
-    <row r="61" spans="1:4">
+        <v>-0.2291884141124402</v>
+      </c>
+      <c r="E60">
+        <v>-0.2605510168743967</v>
+      </c>
+      <c r="F60">
+        <v>-0.08349565670566798</v>
+      </c>
+      <c r="G60">
+        <v>-0.04980296995944546</v>
+      </c>
+    </row>
+    <row r="61" spans="1:7">
       <c r="A61" s="1" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="B61">
-        <v>-0.04765621619669694</v>
+        <v>0.04506415091820682</v>
       </c>
       <c r="C61">
-        <v>-0.05803747192807093</v>
+        <v>0.05667716523174424</v>
       </c>
       <c r="D61">
-        <v>0.01819883155685744</v>
-      </c>
-    </row>
-    <row r="62" spans="1:4">
+        <v>-0.04754252129503693</v>
+      </c>
+      <c r="E61">
+        <v>0.05483930954107672</v>
+      </c>
+      <c r="F61">
+        <v>0.04485984651093039</v>
+      </c>
+      <c r="G61">
+        <v>-0.07821646822259097</v>
+      </c>
+    </row>
+    <row r="62" spans="1:7">
       <c r="A62" s="1" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="B62">
         <v>0</v>
@@ -1559,108 +2117,180 @@
       <c r="D62">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="1:4">
+      <c r="E62">
+        <v>0</v>
+      </c>
+      <c r="F62">
+        <v>0</v>
+      </c>
+      <c r="G62">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="1:7">
       <c r="A63" s="1" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="B63">
-        <v>-0.01856505898792813</v>
+        <v>0.01833739745427027</v>
       </c>
       <c r="C63">
-        <v>-0.03370739198408582</v>
+        <v>0.03030102243200357</v>
       </c>
       <c r="D63">
-        <v>-0.01596127025763224</v>
-      </c>
-    </row>
-    <row r="64" spans="1:4">
+        <v>-0.02251929676962527</v>
+      </c>
+      <c r="E63">
+        <v>0.07064012689733738</v>
+      </c>
+      <c r="F63">
+        <v>0.02740138620989848</v>
+      </c>
+      <c r="G63">
+        <v>-0.07297590928208467</v>
+      </c>
+    </row>
+    <row r="64" spans="1:7">
       <c r="A64" s="1" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="B64">
-        <v>-0.05399828273104808</v>
+        <v>0.05890936830639043</v>
       </c>
       <c r="C64">
-        <v>-0.04754592875419948</v>
+        <v>0.05774057632506122</v>
       </c>
       <c r="D64">
-        <v>0.00956706541947731</v>
-      </c>
-    </row>
-    <row r="65" spans="1:4">
+        <v>-0.01500587750243404</v>
+      </c>
+      <c r="E64">
+        <v>0.04706690717381892</v>
+      </c>
+      <c r="F64">
+        <v>0.04416502844367466</v>
+      </c>
+      <c r="G64">
+        <v>-0.05651063036508945</v>
+      </c>
+    </row>
+    <row r="65" spans="1:7">
       <c r="A65" s="1" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="B65">
-        <v>-0.07887953737444178</v>
+        <v>0.06487667916574746</v>
       </c>
       <c r="C65">
-        <v>-0.02663024902871468</v>
+        <v>0.02595087752451587</v>
       </c>
       <c r="D65">
-        <v>0.05928596483168446</v>
-      </c>
-    </row>
-    <row r="66" spans="1:4">
+        <v>-0.09099591475495401</v>
+      </c>
+      <c r="E65">
+        <v>0.05075663853366735</v>
+      </c>
+      <c r="F65">
+        <v>-0.003646813310218128</v>
+      </c>
+      <c r="G65">
+        <v>-0.01624834675906164</v>
+      </c>
+    </row>
+    <row r="66" spans="1:7">
       <c r="A66" s="1" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="B66">
-        <v>-0.06284314263115612</v>
+        <v>0.05541196270817157</v>
       </c>
       <c r="C66">
-        <v>-0.07910104988491666</v>
+        <v>0.07659100267072516</v>
       </c>
       <c r="D66">
-        <v>0.04217437083198795</v>
-      </c>
-    </row>
-    <row r="67" spans="1:4">
+        <v>-0.08208968193545386</v>
+      </c>
+      <c r="E66">
+        <v>0.07107223575623578</v>
+      </c>
+      <c r="F66">
+        <v>0.05027504597635978</v>
+      </c>
+      <c r="G66">
+        <v>-0.07520657067334843</v>
+      </c>
+    </row>
+    <row r="67" spans="1:7">
       <c r="A67" s="1" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="B67">
-        <v>-0.0501053352073941</v>
+        <v>0.04369060803215598</v>
       </c>
       <c r="C67">
-        <v>-0.03179680355083939</v>
+        <v>0.0283730308247734</v>
       </c>
       <c r="D67">
-        <v>-0.02334414868860759</v>
-      </c>
-    </row>
-    <row r="68" spans="1:4">
+        <v>-0.005839522924215662</v>
+      </c>
+      <c r="E67">
+        <v>0.03665912162172916</v>
+      </c>
+      <c r="F67">
+        <v>0.01852338167458447</v>
+      </c>
+      <c r="G67">
+        <v>-0.03300461176193147</v>
+      </c>
+    </row>
+    <row r="68" spans="1:7">
       <c r="A68" s="1" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="B68">
-        <v>-0.1227337614121672</v>
+        <v>0.1452026126680566</v>
       </c>
       <c r="C68">
-        <v>0.2833698967555228</v>
+        <v>-0.2449349865840432</v>
       </c>
       <c r="D68">
-        <v>-0.004941567526477756</v>
-      </c>
-    </row>
-    <row r="69" spans="1:4">
+        <v>0.01010515525579627</v>
+      </c>
+      <c r="E68">
+        <v>0.0470598209734007</v>
+      </c>
+      <c r="F68">
+        <v>0.003643366997239973</v>
+      </c>
+      <c r="G68">
+        <v>-0.02377623448037976</v>
+      </c>
+    </row>
+    <row r="69" spans="1:7">
       <c r="A69" s="1" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="B69">
-        <v>-0.09347420443782381</v>
+        <v>0.09038762896305998</v>
       </c>
       <c r="C69">
-        <v>-0.07086923324447614</v>
+        <v>0.08861358080228639</v>
       </c>
       <c r="D69">
-        <v>-0.04469225218874724</v>
-      </c>
-    </row>
-    <row r="70" spans="1:4">
+        <v>0.007008021613733181</v>
+      </c>
+      <c r="E69">
+        <v>0.0629691496954836</v>
+      </c>
+      <c r="F69">
+        <v>0.04512806807578925</v>
+      </c>
+      <c r="G69">
+        <v>-0.07473310948238573</v>
+      </c>
+    </row>
+    <row r="70" spans="1:7">
       <c r="A70" s="1" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="B70">
         <v>0</v>
@@ -1671,360 +2301,594 @@
       <c r="D70">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="1:4">
+      <c r="E70">
+        <v>0</v>
+      </c>
+      <c r="F70">
+        <v>0</v>
+      </c>
+      <c r="G70">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="1:7">
       <c r="A71" s="1" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="B71">
-        <v>-0.1128675021153003</v>
+        <v>0.1404983198220965</v>
       </c>
       <c r="C71">
-        <v>0.2593744190370935</v>
+        <v>-0.2453904967458068</v>
       </c>
       <c r="D71">
-        <v>0.01634562857245107</v>
-      </c>
-    </row>
-    <row r="72" spans="1:4">
+        <v>-0.01111923089618228</v>
+      </c>
+      <c r="E71">
+        <v>0.06583923815516558</v>
+      </c>
+      <c r="F71">
+        <v>-0.001127899678111845</v>
+      </c>
+      <c r="G71">
+        <v>-0.05417384954481522</v>
+      </c>
+    </row>
+    <row r="72" spans="1:7">
       <c r="A72" s="1" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="B72">
-        <v>-0.09972799712261214</v>
+        <v>0.1060588909464907</v>
       </c>
       <c r="C72">
-        <v>-0.03993177674234098</v>
+        <v>0.04610202569674371</v>
       </c>
       <c r="D72">
-        <v>0.003339469930504975</v>
-      </c>
-    </row>
-    <row r="73" spans="1:4">
+        <v>-0.0389886870574153</v>
+      </c>
+      <c r="E72">
+        <v>0.02074580998577681</v>
+      </c>
+      <c r="F72">
+        <v>0.01799643737774079</v>
+      </c>
+      <c r="G72">
+        <v>-0.1036388252205029</v>
+      </c>
+    </row>
+    <row r="73" spans="1:7">
       <c r="A73" s="1" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="B73">
-        <v>-0.378257075130905</v>
+        <v>0.3230550389405076</v>
       </c>
       <c r="C73">
-        <v>-0.04882120392285522</v>
+        <v>0.06376659531685612</v>
       </c>
       <c r="D73">
-        <v>0.5029655082450681</v>
-      </c>
-    </row>
-    <row r="74" spans="1:4">
+        <v>-0.4724648569524312</v>
+      </c>
+      <c r="E73">
+        <v>-0.5094157309405832</v>
+      </c>
+      <c r="F73">
+        <v>-0.2288372919688229</v>
+      </c>
+      <c r="G73">
+        <v>-0.01847776233975046</v>
+      </c>
+    </row>
+    <row r="74" spans="1:7">
       <c r="A74" s="1" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="B74">
-        <v>-0.1061947961294365</v>
+        <v>0.1109668476623085</v>
       </c>
       <c r="C74">
-        <v>-0.09240870332347742</v>
+        <v>0.09058255352114578</v>
       </c>
       <c r="D74">
-        <v>-0.04864262634362097</v>
-      </c>
-    </row>
-    <row r="75" spans="1:4">
+        <v>0.04461942782690289</v>
+      </c>
+      <c r="E74">
+        <v>0.06431042584303745</v>
+      </c>
+      <c r="F74">
+        <v>-0.01632377560985518</v>
+      </c>
+      <c r="G74">
+        <v>-0.04552368280728564</v>
+      </c>
+    </row>
+    <row r="75" spans="1:7">
       <c r="A75" s="1" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="B75">
-        <v>-0.2590808066363817</v>
+        <v>0.2609743311235822</v>
       </c>
       <c r="C75">
-        <v>-0.08188767099200731</v>
+        <v>0.1181683418082497</v>
       </c>
       <c r="D75">
-        <v>-0.1487123002559674</v>
-      </c>
-    </row>
-    <row r="76" spans="1:4">
+        <v>0.1513714397064916</v>
+      </c>
+      <c r="E75">
+        <v>0.02229826147655114</v>
+      </c>
+      <c r="F75">
+        <v>-0.04227358360751873</v>
+      </c>
+      <c r="G75">
+        <v>0.04585078608118692</v>
+      </c>
+    </row>
+    <row r="76" spans="1:7">
       <c r="A76" s="1" t="s">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="B76">
-        <v>-0.1172422830486763</v>
+        <v>0.1304027843291892</v>
       </c>
       <c r="C76">
-        <v>-0.0771098909039814</v>
+        <v>0.08782360043843965</v>
       </c>
       <c r="D76">
-        <v>-0.07691168454992105</v>
-      </c>
-    </row>
-    <row r="77" spans="1:4">
+        <v>0.07392743792086257</v>
+      </c>
+      <c r="E76">
+        <v>0.08491332974765106</v>
+      </c>
+      <c r="F76">
+        <v>0.01105233473648568</v>
+      </c>
+      <c r="G76">
+        <v>-0.03377124803134205</v>
+      </c>
+    </row>
+    <row r="77" spans="1:7">
       <c r="A77" s="1" t="s">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="B77">
-        <v>-0.08503534643288604</v>
+        <v>0.06971675908399046</v>
       </c>
       <c r="C77">
-        <v>-0.03782822332111023</v>
+        <v>0.05668582972692743</v>
       </c>
       <c r="D77">
-        <v>0.05374362708040913</v>
-      </c>
-    </row>
-    <row r="78" spans="1:4">
+        <v>-0.07460135331224688</v>
+      </c>
+      <c r="E77">
+        <v>0.1011533340423262</v>
+      </c>
+      <c r="F77">
+        <v>0.1828612343436607</v>
+      </c>
+      <c r="G77">
+        <v>0.1191739058094509</v>
+      </c>
+    </row>
+    <row r="78" spans="1:7">
       <c r="A78" s="1" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="B78">
-        <v>-0.05021526380641145</v>
+        <v>0.04941563877545847</v>
       </c>
       <c r="C78">
-        <v>-0.03903518053111139</v>
+        <v>0.05136923529396799</v>
       </c>
       <c r="D78">
-        <v>0.03988275183516308</v>
-      </c>
-    </row>
-    <row r="79" spans="1:4">
+        <v>-0.0740292514180682</v>
+      </c>
+      <c r="E78">
+        <v>0.06521585335891203</v>
+      </c>
+      <c r="F78">
+        <v>0.04829593246616152</v>
+      </c>
+      <c r="G78">
+        <v>-0.06568635192743617</v>
+      </c>
+    </row>
+    <row r="79" spans="1:7">
       <c r="A79" s="1" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="B79">
-        <v>0.0003989450552885748</v>
+        <v>0.03525540892290255</v>
       </c>
       <c r="C79">
-        <v>-0.0014485483969274</v>
+        <v>0.04919802240957086</v>
       </c>
       <c r="D79">
-        <v>0.004513170898691496</v>
-      </c>
-    </row>
-    <row r="80" spans="1:4">
+        <v>0.0815250425312562</v>
+      </c>
+      <c r="E79">
+        <v>0.07540752810889383</v>
+      </c>
+      <c r="F79">
+        <v>-0.02911242302076277</v>
+      </c>
+      <c r="G79">
+        <v>-0.03372446143186682</v>
+      </c>
+    </row>
+    <row r="80" spans="1:7">
       <c r="A80" s="1" t="s">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="B80">
-        <v>-0.04018855731060703</v>
+        <v>0.03094989644396555</v>
       </c>
       <c r="C80">
-        <v>-0.05226330753779965</v>
+        <v>0.05129577400538963</v>
       </c>
       <c r="D80">
-        <v>0.03406591925765074</v>
-      </c>
-    </row>
-    <row r="81" spans="1:4">
+        <v>-0.0459506391499739</v>
+      </c>
+      <c r="E80">
+        <v>0.01456349499595344</v>
+      </c>
+      <c r="F80">
+        <v>0.05221255602581249</v>
+      </c>
+      <c r="G80">
+        <v>0.001027658740148731</v>
+      </c>
+    </row>
+    <row r="81" spans="1:7">
       <c r="A81" s="1" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="B81">
-        <v>-0.146188809382759</v>
+        <v>0.1440598065000809</v>
       </c>
       <c r="C81">
-        <v>-0.06840277527819043</v>
+        <v>0.08903623442735105</v>
       </c>
       <c r="D81">
-        <v>-0.1168051716135276</v>
-      </c>
-    </row>
-    <row r="82" spans="1:4">
+        <v>0.1182778998194999</v>
+      </c>
+      <c r="E81">
+        <v>0.06900616945902167</v>
+      </c>
+      <c r="F81">
+        <v>-0.02020513857934868</v>
+      </c>
+      <c r="G81">
+        <v>0.01591819379907424</v>
+      </c>
+    </row>
+    <row r="82" spans="1:7">
       <c r="A82" s="1" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="B82">
-        <v>-0.207169519165316</v>
+        <v>0.2351493951423557</v>
       </c>
       <c r="C82">
-        <v>-0.08517423678317364</v>
+        <v>0.1523085032137432</v>
       </c>
       <c r="D82">
-        <v>-0.2083873988311378</v>
-      </c>
-    </row>
-    <row r="83" spans="1:4">
+        <v>0.2490537393089336</v>
+      </c>
+      <c r="E82">
+        <v>-0.03460498803485686</v>
+      </c>
+      <c r="F82">
+        <v>0.04574337860756146</v>
+      </c>
+      <c r="G82">
+        <v>-0.09166926455709913</v>
+      </c>
+    </row>
+    <row r="83" spans="1:7">
       <c r="A83" s="1" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="B83">
-        <v>-0.04579985217733885</v>
+        <v>0.03128774630452681</v>
       </c>
       <c r="C83">
-        <v>-0.03180249383051797</v>
+        <v>0.04513093703961723</v>
       </c>
       <c r="D83">
-        <v>0.04384800375960526</v>
-      </c>
-    </row>
-    <row r="84" spans="1:4">
+        <v>-0.03630405020619876</v>
+      </c>
+      <c r="E83">
+        <v>0.02096122082037104</v>
+      </c>
+      <c r="F83">
+        <v>0.02481120766310069</v>
+      </c>
+      <c r="G83">
+        <v>0.001365871171778862</v>
+      </c>
+    </row>
+    <row r="84" spans="1:7">
       <c r="A84" s="1" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="B84">
-        <v>0</v>
+        <v>-0.0002111649990259262</v>
       </c>
       <c r="C84">
-        <v>0</v>
+        <v>-0.0005788468604174024</v>
       </c>
       <c r="D84">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="85" spans="1:4">
+        <v>0.0001931175823712898</v>
+      </c>
+      <c r="E84">
+        <v>0.003757217034652511</v>
+      </c>
+      <c r="F84">
+        <v>-0.001476593306055389</v>
+      </c>
+      <c r="G84">
+        <v>0.0004050175107456884</v>
+      </c>
+    </row>
+    <row r="85" spans="1:7">
       <c r="A85" s="1" t="s">
-        <v>86</v>
+        <v>89</v>
       </c>
       <c r="B85">
-        <v>-0.220618846901837</v>
+        <v>0.2045104122157196</v>
       </c>
       <c r="C85">
-        <v>-0.09046239491345277</v>
+        <v>0.1084652249064484</v>
       </c>
       <c r="D85">
-        <v>-0.1633698942911594</v>
-      </c>
-    </row>
-    <row r="86" spans="1:4">
+        <v>0.1313596003015059</v>
+      </c>
+      <c r="E85">
+        <v>-0.00697756485434985</v>
+      </c>
+      <c r="F85">
+        <v>-0.1005261542273824</v>
+      </c>
+      <c r="G85">
+        <v>-0.005768823544565266</v>
+      </c>
+    </row>
+    <row r="86" spans="1:7">
       <c r="A86" s="1" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="B86">
-        <v>-0.01086268359591683</v>
+        <v>0.01427698024262221</v>
       </c>
       <c r="C86">
-        <v>-0.02876673360786133</v>
+        <v>0.0175243426027519</v>
       </c>
       <c r="D86">
-        <v>0.0448629823588788</v>
-      </c>
-    </row>
-    <row r="87" spans="1:4">
+        <v>-0.07147157181566781</v>
+      </c>
+      <c r="E86">
+        <v>0.08055056640226496</v>
+      </c>
+      <c r="F86">
+        <v>0.06744334196605972</v>
+      </c>
+      <c r="G86">
+        <v>-0.07239808328077399</v>
+      </c>
+    </row>
+    <row r="87" spans="1:7">
       <c r="A87" s="1" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="B87">
-        <v>-0.03157048425989133</v>
+        <v>0.03105638511797758</v>
       </c>
       <c r="C87">
-        <v>-0.003670129554060945</v>
+        <v>0.01328315023729939</v>
       </c>
       <c r="D87">
-        <v>0.07813947932782822</v>
-      </c>
-    </row>
-    <row r="88" spans="1:4">
+        <v>-0.09817560242039519</v>
+      </c>
+      <c r="E87">
+        <v>0.1258204374729889</v>
+      </c>
+      <c r="F87">
+        <v>0.07002219158810565</v>
+      </c>
+      <c r="G87">
+        <v>0.004405431093785507</v>
+      </c>
+    </row>
+    <row r="88" spans="1:7">
       <c r="A88" s="1" t="s">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="B88">
-        <v>-0.1097582553341131</v>
+        <v>0.093766322407414</v>
       </c>
       <c r="C88">
-        <v>-0.0829729748768136</v>
+        <v>0.06711549344892807</v>
       </c>
       <c r="D88">
-        <v>-0.01712423574256167</v>
-      </c>
-    </row>
-    <row r="89" spans="1:4">
+        <v>-0.01675048943346159</v>
+      </c>
+      <c r="E88">
+        <v>0.05445910332881559</v>
+      </c>
+      <c r="F88">
+        <v>0.03683877295772268</v>
+      </c>
+      <c r="G88">
+        <v>-0.0283935000061602</v>
+      </c>
+    </row>
+    <row r="89" spans="1:7">
       <c r="A89" s="1" t="s">
-        <v>90</v>
+        <v>93</v>
       </c>
       <c r="B89">
-        <v>-0.1732757628117456</v>
+        <v>0.2099724378761124</v>
       </c>
       <c r="C89">
-        <v>0.3842903571446379</v>
+        <v>-0.3860398807676025</v>
       </c>
       <c r="D89">
-        <v>-0.02501433623350553</v>
-      </c>
-    </row>
-    <row r="90" spans="1:4">
+        <v>0.007683170093482039</v>
+      </c>
+      <c r="E89">
+        <v>0.07810761738247254</v>
+      </c>
+      <c r="F89">
+        <v>0.0828504318842266</v>
+      </c>
+      <c r="G89">
+        <v>0.002169198532389997</v>
+      </c>
+    </row>
+    <row r="90" spans="1:7">
       <c r="A90" s="1" t="s">
-        <v>91</v>
+        <v>94</v>
       </c>
       <c r="B90">
-        <v>-0.1666401692378761</v>
+        <v>0.1908796909715558</v>
       </c>
       <c r="C90">
-        <v>0.33322526869703</v>
+        <v>-0.3115987733447106</v>
       </c>
       <c r="D90">
-        <v>-0.03063219204221912</v>
-      </c>
-    </row>
-    <row r="91" spans="1:4">
+        <v>0.0115659557777135</v>
+      </c>
+      <c r="E90">
+        <v>0.05787656951679138</v>
+      </c>
+      <c r="F90">
+        <v>0.0222672217427198</v>
+      </c>
+      <c r="G90">
+        <v>-0.01234579053162069</v>
+      </c>
+    </row>
+    <row r="91" spans="1:7">
       <c r="A91" s="1" t="s">
-        <v>92</v>
+        <v>95</v>
       </c>
       <c r="B91">
-        <v>-0.1920588742223907</v>
+        <v>0.1886824404390721</v>
       </c>
       <c r="C91">
-        <v>-0.1180796953410496</v>
+        <v>0.13824163365553</v>
       </c>
       <c r="D91">
-        <v>-0.1384008233328676</v>
-      </c>
-    </row>
-    <row r="92" spans="1:4">
+        <v>0.1259080930678929</v>
+      </c>
+      <c r="E91">
+        <v>0.05556648227296738</v>
+      </c>
+      <c r="F91">
+        <v>-0.009628962750306324</v>
+      </c>
+      <c r="G91">
+        <v>0.006921897049308463</v>
+      </c>
+    </row>
+    <row r="92" spans="1:7">
       <c r="A92" s="1" t="s">
-        <v>93</v>
+        <v>96</v>
       </c>
       <c r="B92">
-        <v>-0.159547228446163</v>
+        <v>0.177779679288668</v>
       </c>
       <c r="C92">
-        <v>0.3014585298853732</v>
+        <v>-0.3021955200951574</v>
       </c>
       <c r="D92">
-        <v>-0.01759450327859617</v>
-      </c>
-    </row>
-    <row r="93" spans="1:4">
+        <v>0.009730000592760099</v>
+      </c>
+      <c r="E92">
+        <v>0.06157255802045085</v>
+      </c>
+      <c r="F92">
+        <v>0.04936179055098055</v>
+      </c>
+      <c r="G92">
+        <v>-0.0330754642288175</v>
+      </c>
+    </row>
+    <row r="93" spans="1:7">
       <c r="A93" s="1" t="s">
-        <v>94</v>
+        <v>97</v>
       </c>
       <c r="B93">
-        <v>-0.1854744147733061</v>
+        <v>0.210413148134603</v>
       </c>
       <c r="C93">
-        <v>0.3371591483626786</v>
+        <v>-0.3224185781588759</v>
       </c>
       <c r="D93">
-        <v>-0.03731749799037519</v>
-      </c>
-    </row>
-    <row r="94" spans="1:4">
+        <v>0.01623101763968408</v>
+      </c>
+      <c r="E93">
+        <v>0.04574194704885187</v>
+      </c>
+      <c r="F93">
+        <v>-0.005219610948526955</v>
+      </c>
+      <c r="G93">
+        <v>-0.03497631394839889</v>
+      </c>
+    </row>
+    <row r="94" spans="1:7">
       <c r="A94" s="1" t="s">
-        <v>95</v>
+        <v>98</v>
       </c>
       <c r="B94">
-        <v>-0.3568437826306957</v>
+        <v>0.3509641588565683</v>
       </c>
       <c r="C94">
-        <v>-0.1207575586698159</v>
+        <v>0.1711526939217268</v>
       </c>
       <c r="D94">
-        <v>-0.4190798938488229</v>
-      </c>
-    </row>
-    <row r="95" spans="1:4">
+        <v>0.4060971400734315</v>
+      </c>
+      <c r="E94">
+        <v>-0.00041815198386052</v>
+      </c>
+      <c r="F94">
+        <v>-0.08907404159275759</v>
+      </c>
+      <c r="G94">
+        <v>0.4377911194971603</v>
+      </c>
+    </row>
+    <row r="95" spans="1:7">
       <c r="A95" s="1" t="s">
-        <v>96</v>
+        <v>99</v>
       </c>
       <c r="B95">
-        <v>-0.1219002366278155</v>
+        <v>0.08953013211973941</v>
       </c>
       <c r="C95">
-        <v>-0.04442810643473149</v>
+        <v>0.05310088642654217</v>
       </c>
       <c r="D95">
-        <v>0.2096150556522795</v>
-      </c>
-    </row>
-    <row r="96" spans="1:4">
+        <v>-0.1932304203338394</v>
+      </c>
+      <c r="E95">
+        <v>-0.1543184605448299</v>
+      </c>
+      <c r="F95">
+        <v>0.7794207714191507</v>
+      </c>
+      <c r="G95">
+        <v>0.4518272600158233</v>
+      </c>
+    </row>
+    <row r="96" spans="1:7">
       <c r="A96" s="1" t="s">
-        <v>97</v>
+        <v>100</v>
       </c>
       <c r="B96">
         <v>0</v>
@@ -2035,10 +2899,19 @@
       <c r="D96">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="1:4">
+      <c r="E96">
+        <v>0</v>
+      </c>
+      <c r="F96">
+        <v>0</v>
+      </c>
+      <c r="G96">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="1:7">
       <c r="A97" s="1" t="s">
-        <v>98</v>
+        <v>101</v>
       </c>
       <c r="B97">
         <v>0</v>
@@ -2049,24 +2922,42 @@
       <c r="D97">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="1:4">
+      <c r="E97">
+        <v>0</v>
+      </c>
+      <c r="F97">
+        <v>0</v>
+      </c>
+      <c r="G97">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="1:7">
       <c r="A98" s="1" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="B98">
-        <v>-0.1879084033350643</v>
+        <v>0.1851994182588981</v>
       </c>
       <c r="C98">
-        <v>-0.0301981569419196</v>
+        <v>0.0471555524446455</v>
       </c>
       <c r="D98">
-        <v>0.1885255864294201</v>
-      </c>
-    </row>
-    <row r="99" spans="1:4">
+        <v>-0.1940948618729491</v>
+      </c>
+      <c r="E98">
+        <v>-0.1594845101326534</v>
+      </c>
+      <c r="F98">
+        <v>-0.09401249199102821</v>
+      </c>
+      <c r="G98">
+        <v>-0.07125045839558998</v>
+      </c>
+    </row>
+    <row r="99" spans="1:7">
       <c r="A99" s="1" t="s">
-        <v>100</v>
+        <v>103</v>
       </c>
       <c r="B99">
         <v>0</v>
@@ -2077,10 +2968,19 @@
       <c r="D99">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="1:4">
+      <c r="E99">
+        <v>0</v>
+      </c>
+      <c r="F99">
+        <v>0</v>
+      </c>
+      <c r="G99">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="1:7">
       <c r="A100" s="1" t="s">
-        <v>101</v>
+        <v>104</v>
       </c>
       <c r="B100">
         <v>0</v>
@@ -2091,38 +2991,65 @@
       <c r="D100">
         <v>0</v>
       </c>
-    </row>
-    <row r="101" spans="1:4">
+      <c r="E100">
+        <v>0</v>
+      </c>
+      <c r="F100">
+        <v>0</v>
+      </c>
+      <c r="G100">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="1:7">
       <c r="A101" s="1" t="s">
-        <v>102</v>
+        <v>105</v>
       </c>
       <c r="B101">
-        <v>-0.00942699357312563</v>
+        <v>0.008457954685893559</v>
       </c>
       <c r="C101">
-        <v>-0.03167526085334281</v>
+        <v>0.02800321053827468</v>
       </c>
       <c r="D101">
-        <v>-0.007672023511442218</v>
-      </c>
-    </row>
-    <row r="102" spans="1:4">
+        <v>-0.02548906342922272</v>
+      </c>
+      <c r="E101">
+        <v>0.06469445502968157</v>
+      </c>
+      <c r="F101">
+        <v>0.0541283069805422</v>
+      </c>
+      <c r="G101">
+        <v>-0.08509757970501107</v>
+      </c>
+    </row>
+    <row r="102" spans="1:7">
       <c r="A102" s="1" t="s">
-        <v>103</v>
+        <v>106</v>
       </c>
       <c r="B102">
-        <v>-0.1222454454447607</v>
+        <v>0.1257917189392308</v>
       </c>
       <c r="C102">
-        <v>-0.06070739755732201</v>
+        <v>0.09551375123013028</v>
       </c>
       <c r="D102">
-        <v>-0.05457782329771046</v>
-      </c>
-    </row>
-    <row r="103" spans="1:4">
+        <v>0.06133176342603187</v>
+      </c>
+      <c r="E102">
+        <v>-0.01114911818903283</v>
+      </c>
+      <c r="F102">
+        <v>0.02643928132183385</v>
+      </c>
+      <c r="G102">
+        <v>-0.00285600112063511</v>
+      </c>
+    </row>
+    <row r="103" spans="1:7">
       <c r="A103" s="1" t="s">
-        <v>104</v>
+        <v>107</v>
       </c>
       <c r="B103">
         <v>0</v>
@@ -2133,10 +3060,19 @@
       <c r="D103">
         <v>0</v>
       </c>
-    </row>
-    <row r="104" spans="1:4">
+      <c r="E103">
+        <v>0</v>
+      </c>
+      <c r="F103">
+        <v>0</v>
+      </c>
+      <c r="G103">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="104" spans="1:7">
       <c r="A104" s="1" t="s">
-        <v>105</v>
+        <v>108</v>
       </c>
       <c r="B104">
         <v>0</v>
@@ -2145,6 +3081,15 @@
         <v>0</v>
       </c>
       <c r="D104">
+        <v>0</v>
+      </c>
+      <c r="E104">
+        <v>0</v>
+      </c>
+      <c r="F104">
+        <v>0</v>
+      </c>
+      <c r="G104">
         <v>0</v>
       </c>
     </row>
